--- a/ChimerismFileMetaData.xlsx
+++ b/ChimerismFileMetaData.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDAE55AA-7475-459C-BED8-B2A066FD2CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reiko\Documents\chimerism_analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879D5B91-D7F5-4CF2-B00F-3EC6BB2EAF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25215" yWindow="1230" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="498">
   <si>
     <t>PPID</t>
   </si>
@@ -1489,13 +1494,49 @@
   </si>
   <si>
     <t>HMTB4615_Prog</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-70_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-50_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-51_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-73_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-75_S119_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-47_S91_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-46_S90_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-62_S106_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-71_S115_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-43_S87_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-42_S86_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-44_S88_L004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1535,7 +1576,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1911,11 +1952,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G193" sqref="G193:G213"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="G184" sqref="G183:G184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
@@ -1925,7 +1966,7 @@
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +2012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +2035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2017,7 +2058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2040,7 +2081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2063,7 +2104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2086,7 +2127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2109,7 +2150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +2196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2178,7 +2219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2201,7 +2242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2224,7 +2265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2247,7 +2288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2270,7 +2311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2293,7 +2334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2316,7 +2357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2339,7 +2380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2362,7 +2403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2385,7 +2426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2408,7 +2449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2431,7 +2472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2454,7 +2495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2477,7 +2518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2500,7 +2541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -2524,7 +2565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -2548,7 +2589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -2572,7 +2613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2596,7 +2637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -2620,7 +2661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -2644,7 +2685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -2668,7 +2709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -2692,7 +2733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2716,7 +2757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -2740,7 +2781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2764,7 +2805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -2788,7 +2829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -2812,7 +2853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -2836,7 +2877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -2860,7 +2901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -2884,7 +2925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -2908,7 +2949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2932,7 +2973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2956,7 +2997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -2980,7 +3021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -3001,7 +3042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -3022,7 +3063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -3043,7 +3084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -3064,7 +3105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -3085,7 +3126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -3106,7 +3147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>141</v>
       </c>
@@ -3127,7 +3168,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -3148,7 +3189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>141</v>
       </c>
@@ -3173,7 +3214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>141</v>
       </c>
@@ -3198,7 +3239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -3223,7 +3264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -3248,7 +3289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -3256,11 +3297,11 @@
         <v>158</v>
       </c>
       <c r="C58" t="str">
-        <f>LEFT(B58, 12)</f>
+        <f t="shared" ref="C58:D60" si="2">LEFT(B58, 12)</f>
         <v>H1487-15_S15</v>
       </c>
       <c r="D58" t="str">
-        <f>LEFT(C58, 12)</f>
+        <f t="shared" si="2"/>
         <v>H1487-15_S15</v>
       </c>
       <c r="E58" t="s">
@@ -3273,7 +3314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3281,11 +3322,11 @@
         <v>160</v>
       </c>
       <c r="C59" t="str">
-        <f>LEFT(B59, 12)</f>
+        <f t="shared" si="2"/>
         <v>H1487-16_S16</v>
       </c>
       <c r="D59" t="str">
-        <f>LEFT(C59, 12)</f>
+        <f t="shared" si="2"/>
         <v>H1487-16_S16</v>
       </c>
       <c r="E59" t="s">
@@ -3298,7 +3339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>157</v>
       </c>
@@ -3306,11 +3347,11 @@
         <v>161</v>
       </c>
       <c r="C60" t="str">
-        <f>LEFT(B60, 12)</f>
+        <f t="shared" si="2"/>
         <v>H1487-18_S18</v>
       </c>
       <c r="D60" t="str">
-        <f>LEFT(C60, 12)</f>
+        <f t="shared" si="2"/>
         <v>H1487-18_S18</v>
       </c>
       <c r="E60" t="s">
@@ -3323,7 +3364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -3346,7 +3387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -3369,7 +3410,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -3392,7 +3433,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>157</v>
       </c>
@@ -3415,7 +3456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>172</v>
       </c>
@@ -3435,7 +3476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -3455,7 +3496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>172</v>
       </c>
@@ -3475,7 +3516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>172</v>
       </c>
@@ -3495,7 +3536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>172</v>
       </c>
@@ -3515,7 +3556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>172</v>
       </c>
@@ -3535,7 +3576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>172</v>
       </c>
@@ -3555,7 +3596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>172</v>
       </c>
@@ -3575,7 +3616,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -3595,7 +3636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>196</v>
       </c>
@@ -3615,7 +3656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -3635,7 +3676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>196</v>
       </c>
@@ -3655,7 +3696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>196</v>
       </c>
@@ -3675,7 +3716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>196</v>
       </c>
@@ -3695,7 +3736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>196</v>
       </c>
@@ -3715,7 +3756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>196</v>
       </c>
@@ -3735,7 +3776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>196</v>
       </c>
@@ -3755,7 +3796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>215</v>
       </c>
@@ -3772,7 +3813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>215</v>
       </c>
@@ -3789,7 +3830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>215</v>
       </c>
@@ -3806,7 +3847,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>215</v>
       </c>
@@ -3823,7 +3864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>215</v>
       </c>
@@ -3840,7 +3881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>215</v>
       </c>
@@ -3857,7 +3898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -3874,7 +3915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -3891,7 +3932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>215</v>
       </c>
@@ -3908,7 +3949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>228</v>
       </c>
@@ -3925,7 +3966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>228</v>
       </c>
@@ -3942,7 +3983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>228</v>
       </c>
@@ -3959,7 +4000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>228</v>
       </c>
@@ -3976,7 +4017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>228</v>
       </c>
@@ -3993,7 +4034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>228</v>
       </c>
@@ -4010,7 +4051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>228</v>
       </c>
@@ -4027,7 +4068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -4044,7 +4085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>228</v>
       </c>
@@ -4061,7 +4102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>228</v>
       </c>
@@ -4078,7 +4119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>228</v>
       </c>
@@ -4095,7 +4136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>228</v>
       </c>
@@ -4112,7 +4153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>228</v>
       </c>
@@ -4129,7 +4170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>228</v>
       </c>
@@ -4146,7 +4187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -4163,7 +4204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -4180,7 +4221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>228</v>
       </c>
@@ -4197,7 +4238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>228</v>
       </c>
@@ -4214,7 +4255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>228</v>
       </c>
@@ -4231,7 +4272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>228</v>
       </c>
@@ -4248,7 +4289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>228</v>
       </c>
@@ -4265,7 +4306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>228</v>
       </c>
@@ -4282,7 +4323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>228</v>
       </c>
@@ -4299,7 +4340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>228</v>
       </c>
@@ -4316,7 +4357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>260</v>
       </c>
@@ -4336,7 +4377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>260</v>
       </c>
@@ -4356,7 +4397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>260</v>
       </c>
@@ -4376,7 +4417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>260</v>
       </c>
@@ -4396,7 +4437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>260</v>
       </c>
@@ -4413,7 +4454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>260</v>
       </c>
@@ -4430,7 +4471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>260</v>
       </c>
@@ -4447,7 +4488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>260</v>
       </c>
@@ -4464,7 +4505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>260</v>
       </c>
@@ -4481,7 +4522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>260</v>
       </c>
@@ -4498,7 +4539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>260</v>
       </c>
@@ -4515,7 +4556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>260</v>
       </c>
@@ -4532,7 +4573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>260</v>
       </c>
@@ -4549,7 +4590,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>260</v>
       </c>
@@ -4566,7 +4607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>260</v>
       </c>
@@ -4583,7 +4624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>260</v>
       </c>
@@ -4600,7 +4641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>285</v>
       </c>
@@ -4623,7 +4664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>285</v>
       </c>
@@ -4646,7 +4687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>285</v>
       </c>
@@ -4669,7 +4710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>285</v>
       </c>
@@ -4692,7 +4733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>285</v>
       </c>
@@ -4715,7 +4756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>285</v>
       </c>
@@ -4738,7 +4779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>285</v>
       </c>
@@ -4761,7 +4802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>285</v>
       </c>
@@ -4784,7 +4825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>285</v>
       </c>
@@ -4807,7 +4848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>285</v>
       </c>
@@ -4830,7 +4871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>285</v>
       </c>
@@ -4853,7 +4894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>285</v>
       </c>
@@ -4876,7 +4917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -4899,7 +4940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>285</v>
       </c>
@@ -4922,7 +4963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>285</v>
       </c>
@@ -4945,7 +4986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>285</v>
       </c>
@@ -4968,7 +5009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>330</v>
       </c>
@@ -4991,7 +5032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>330</v>
       </c>
@@ -5014,7 +5055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>330</v>
       </c>
@@ -5037,7 +5078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>330</v>
       </c>
@@ -5060,7 +5101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>330</v>
       </c>
@@ -5077,7 +5118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>330</v>
       </c>
@@ -5094,7 +5135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>330</v>
       </c>
@@ -5111,7 +5152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>330</v>
       </c>
@@ -5128,7 +5169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>345</v>
       </c>
@@ -5148,7 +5189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>345</v>
       </c>
@@ -5168,7 +5209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>345</v>
       </c>
@@ -5188,7 +5229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>345</v>
       </c>
@@ -5208,7 +5249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>356</v>
       </c>
@@ -5228,7 +5269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>356</v>
       </c>
@@ -5248,7 +5289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>356</v>
       </c>
@@ -5268,7 +5309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>356</v>
       </c>
@@ -5288,7 +5329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>365</v>
       </c>
@@ -5308,7 +5349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>365</v>
       </c>
@@ -5328,7 +5369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>365</v>
       </c>
@@ -5348,7 +5389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>365</v>
       </c>
@@ -5368,7 +5409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>374</v>
       </c>
@@ -5388,7 +5429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>374</v>
       </c>
@@ -5408,7 +5449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>374</v>
       </c>
@@ -5428,7 +5469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>374</v>
       </c>
@@ -5448,7 +5489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>383</v>
       </c>
@@ -5468,7 +5509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>383</v>
       </c>
@@ -5488,7 +5529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>383</v>
       </c>
@@ -5508,7 +5549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>383</v>
       </c>
@@ -5528,7 +5569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>345</v>
       </c>
@@ -5548,7 +5589,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>365</v>
       </c>
@@ -5568,7 +5609,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>356</v>
       </c>
@@ -5588,7 +5629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>374</v>
       </c>
@@ -5608,7 +5649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>383</v>
       </c>
@@ -5628,10 +5669,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>407</v>
       </c>
+      <c r="B180" s="7" t="s">
+        <v>490</v>
+      </c>
       <c r="C180" s="7" t="s">
         <v>408</v>
       </c>
@@ -5648,10 +5692,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>407</v>
       </c>
+      <c r="B181" s="7" t="s">
+        <v>491</v>
+      </c>
       <c r="C181" s="7" t="s">
         <v>411</v>
       </c>
@@ -5668,10 +5715,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>407</v>
       </c>
+      <c r="B182" s="7" t="s">
+        <v>492</v>
+      </c>
       <c r="C182" s="7" t="s">
         <v>413</v>
       </c>
@@ -5688,10 +5738,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>407</v>
       </c>
+      <c r="B183" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="C183" s="7" t="s">
         <v>415</v>
       </c>
@@ -5708,10 +5761,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>407</v>
       </c>
+      <c r="B184" s="7" t="s">
+        <v>494</v>
+      </c>
       <c r="C184" s="7" t="s">
         <v>417</v>
       </c>
@@ -5728,10 +5784,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>407</v>
       </c>
+      <c r="B185" s="7" t="s">
+        <v>495</v>
+      </c>
       <c r="C185" s="7" t="s">
         <v>420</v>
       </c>
@@ -5748,10 +5807,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>407</v>
       </c>
+      <c r="B186" s="7" t="s">
+        <v>496</v>
+      </c>
       <c r="C186" s="7" t="s">
         <v>422</v>
       </c>
@@ -5768,10 +5830,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>407</v>
       </c>
+      <c r="B187" s="7" t="s">
+        <v>497</v>
+      </c>
       <c r="C187" s="7" t="s">
         <v>424</v>
       </c>
@@ -5788,10 +5853,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>407</v>
       </c>
+      <c r="B188" t="s">
+        <v>486</v>
+      </c>
       <c r="C188" t="s">
         <v>426</v>
       </c>
@@ -5808,10 +5876,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>407</v>
       </c>
+      <c r="B189" t="s">
+        <v>487</v>
+      </c>
       <c r="C189" t="s">
         <v>429</v>
       </c>
@@ -5828,10 +5899,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>407</v>
       </c>
+      <c r="B190" t="s">
+        <v>488</v>
+      </c>
       <c r="C190" t="s">
         <v>431</v>
       </c>
@@ -5848,10 +5922,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>407</v>
       </c>
+      <c r="B191" t="s">
+        <v>489</v>
+      </c>
       <c r="C191" t="s">
         <v>433</v>
       </c>
@@ -5868,7 +5945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>435</v>
       </c>
@@ -5888,7 +5965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>435</v>
       </c>
@@ -5908,7 +5985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>435</v>
       </c>
@@ -5928,7 +6005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>435</v>
       </c>
@@ -5948,7 +6025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>435</v>
       </c>
@@ -5968,7 +6045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>435</v>
       </c>
@@ -5988,7 +6065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>435</v>
       </c>
@@ -6008,7 +6085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>435</v>
       </c>
@@ -6028,7 +6105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>435</v>
       </c>
@@ -6048,7 +6125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>435</v>
       </c>
@@ -6068,7 +6145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>435</v>
       </c>
@@ -6088,7 +6165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>435</v>
       </c>
@@ -6108,7 +6185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>435</v>
       </c>
@@ -6128,7 +6205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>435</v>
       </c>
@@ -6148,7 +6225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>435</v>
       </c>
@@ -6168,7 +6245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>435</v>
       </c>
@@ -6188,7 +6265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>435</v>
       </c>
@@ -6208,7 +6285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>435</v>
       </c>
@@ -6228,7 +6305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>435</v>
       </c>
@@ -6248,7 +6325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>435</v>
       </c>
@@ -6268,7 +6345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>435</v>
       </c>
@@ -6288,7 +6365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>435</v>
       </c>

--- a/ChimerismFileMetaData.xlsx
+++ b/ChimerismFileMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reiko\Documents\chimerism_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reikotachibana/Documents/Chung Lab/chimerism_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879D5B91-D7F5-4CF2-B00F-3EC6BB2EAF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD2B285-8BDA-5741-BE45-AADEC8CBF0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25215" yWindow="1230" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="552">
   <si>
     <t>PPID</t>
   </si>
@@ -554,9 +554,6 @@
     <t>HMTB1216_CD45RApos_S43</t>
   </si>
   <si>
-    <t>PPID 1883</t>
-  </si>
-  <si>
     <t>1799FL-29-01-04</t>
   </si>
   <si>
@@ -1103,9 +1100,6 @@
     <t>BK_TP_13_Bulk</t>
   </si>
   <si>
-    <t>Bulk</t>
-  </si>
-  <si>
     <t>SC64</t>
   </si>
   <si>
@@ -1530,13 +1524,181 @@
   </si>
   <si>
     <t>1799FL-35-01-44_S88_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-35_S79_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-36_S80_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-37_S81_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-38_S82_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-39_S83_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-40_S84_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-41_S85_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-45_S89_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-48_S92_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-49_S93_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-52_S96_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-53_S97_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-60_S104_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-61_S105_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-63_S107_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-65_S109_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-66_S110_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-67_S111_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-68_S112_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-69_S113_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-72_S116_L004</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-74_S118_L004</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-04_S66_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-19_S81_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-31_S93_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-32_S94_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-33_S95_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-91_S153_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-92_S154_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-93_S155_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-94_S156_L007</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-19_S63_L004</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-40_S40_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-39_S39_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-38_S38_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-37_S37_L003</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-23_S67_L004</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-50_S50_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-51_S51_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-52_S52_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-53_S53_L003</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-20_S64_L004</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-25_S25_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-24_S24_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-23_S23_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-22_S22_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-26_S26_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-27_S27_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-28_S28_L003</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-21_S65_L004</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-29_S29_L003</t>
+  </si>
+  <si>
+    <t>1799FL-35-01-22_S66_L004</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-66_S66_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-67_S67_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-69_S69_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-68_S68_L003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1548,7 +1710,6 @@
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1559,6 +1720,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1580,8 +1742,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1591,6 +1760,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,7 +1782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1616,6 +1791,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1950,23 +2129,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="G184" sqref="G183:G184"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +2167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +2259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2150,7 +2328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2196,7 +2374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2397,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2242,7 +2420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2265,7 +2443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2288,7 +2466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +2489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2357,7 +2535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +2581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2449,7 +2627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2472,7 +2650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2541,7 +2719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -2565,7 +2743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -2589,7 +2767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -2613,7 +2791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2637,7 +2815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -2661,7 +2839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -2685,7 +2863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -2709,7 +2887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -2733,7 +2911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2757,7 +2935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -2781,7 +2959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2805,7 +2983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -2829,7 +3007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -2853,7 +3031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -2877,7 +3055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -2901,7 +3079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -2925,7 +3103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -2949,7 +3127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2973,7 +3151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2997,7 +3175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -3021,7 +3199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -3042,7 +3220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -3063,7 +3241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -3084,7 +3262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -3105,7 +3283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -3126,7 +3304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -3147,7 +3325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>141</v>
       </c>
@@ -3168,7 +3346,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -3189,7 +3367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>141</v>
       </c>
@@ -3214,7 +3392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>141</v>
       </c>
@@ -3239,7 +3417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -3264,7 +3442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -3289,7 +3467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -3314,7 +3492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -3339,7 +3517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>157</v>
       </c>
@@ -3364,7 +3542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -3387,7 +3565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -3410,7 +3588,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -3433,7 +3611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>157</v>
       </c>
@@ -3456,198 +3634,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" t="s">
-        <v>175</v>
-      </c>
-      <c r="F65" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" t="s">
-        <v>177</v>
-      </c>
-      <c r="E66" t="s">
-        <v>175</v>
-      </c>
-      <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" t="s">
-        <v>175</v>
-      </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68" t="s">
-        <v>180</v>
-      </c>
-      <c r="D68" t="s">
-        <v>181</v>
-      </c>
-      <c r="E68" t="s">
-        <v>175</v>
-      </c>
-      <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" t="s">
-        <v>183</v>
-      </c>
-      <c r="E69" t="s">
-        <v>175</v>
-      </c>
-      <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70" t="s">
-        <v>185</v>
-      </c>
-      <c r="E70" t="s">
-        <v>186</v>
-      </c>
-      <c r="F70" t="s">
-        <v>187</v>
-      </c>
-      <c r="G70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" t="s">
-        <v>188</v>
-      </c>
-      <c r="D71" t="s">
-        <v>189</v>
-      </c>
-      <c r="E71" t="s">
-        <v>186</v>
-      </c>
-      <c r="F71" t="s">
-        <v>190</v>
-      </c>
-      <c r="G71" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" t="s">
-        <v>191</v>
-      </c>
-      <c r="D72" t="s">
-        <v>192</v>
-      </c>
-      <c r="E72" t="s">
-        <v>186</v>
-      </c>
-      <c r="F72" t="s">
-        <v>193</v>
-      </c>
-      <c r="G72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>172</v>
-      </c>
-      <c r="C73" t="s">
-        <v>194</v>
-      </c>
-      <c r="D73" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>195</v>
       </c>
-      <c r="E73" t="s">
-        <v>186</v>
-      </c>
-      <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>196</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>197</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>198</v>
-      </c>
-      <c r="E74" t="s">
-        <v>199</v>
       </c>
       <c r="F74" t="s">
         <v>29</v>
@@ -3656,18 +3654,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" t="s">
         <v>200</v>
       </c>
-      <c r="C75" t="s">
-        <v>201</v>
-      </c>
       <c r="E75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
@@ -3676,18 +3674,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B76" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" t="s">
         <v>202</v>
       </c>
-      <c r="C76" t="s">
-        <v>203</v>
-      </c>
       <c r="E76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -3696,18 +3694,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" t="s">
         <v>204</v>
       </c>
-      <c r="C77" t="s">
-        <v>205</v>
-      </c>
       <c r="E77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
@@ -3716,18 +3714,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B78" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" t="s">
         <v>206</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>207</v>
-      </c>
-      <c r="E78" t="s">
-        <v>208</v>
       </c>
       <c r="F78" t="s">
         <v>29</v>
@@ -3736,18 +3734,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B79" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" t="s">
         <v>209</v>
       </c>
-      <c r="C79" t="s">
-        <v>210</v>
-      </c>
       <c r="E79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F79" t="s">
         <v>25</v>
@@ -3756,18 +3754,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" t="s">
         <v>211</v>
       </c>
-      <c r="C80" t="s">
-        <v>212</v>
-      </c>
       <c r="E80" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -3776,18 +3774,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" t="s">
         <v>213</v>
       </c>
-      <c r="C81" t="s">
-        <v>214</v>
-      </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
@@ -3796,15 +3794,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" t="s">
         <v>215</v>
       </c>
-      <c r="B82" t="s">
+      <c r="E82" t="s">
         <v>216</v>
-      </c>
-      <c r="E82" t="s">
-        <v>217</v>
       </c>
       <c r="F82" t="s">
         <v>29</v>
@@ -3813,15 +3811,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B83" t="s">
+        <v>217</v>
+      </c>
+      <c r="E83" t="s">
         <v>218</v>
-      </c>
-      <c r="E83" t="s">
-        <v>219</v>
       </c>
       <c r="F83" t="s">
         <v>25</v>
@@ -3830,15 +3828,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
@@ -3847,15 +3845,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
@@ -3864,15 +3862,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F86" t="s">
         <v>29</v>
@@ -3881,15 +3879,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B87" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" t="s">
         <v>223</v>
-      </c>
-      <c r="E87" t="s">
-        <v>224</v>
       </c>
       <c r="F87" t="s">
         <v>25</v>
@@ -3898,15 +3896,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F88" t="s">
         <v>29</v>
@@ -3915,15 +3913,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
@@ -3932,15 +3930,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
@@ -3949,15 +3947,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" t="s">
         <v>228</v>
       </c>
-      <c r="B91" t="s">
+      <c r="E91" t="s">
         <v>229</v>
-      </c>
-      <c r="E91" t="s">
-        <v>230</v>
       </c>
       <c r="F91" t="s">
         <v>29</v>
@@ -3966,15 +3964,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -3983,15 +3981,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
@@ -4000,15 +3998,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B94" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F94" t="s">
         <v>25</v>
@@ -4017,15 +4015,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B95" t="s">
+        <v>233</v>
+      </c>
+      <c r="E95" t="s">
         <v>234</v>
-      </c>
-      <c r="E95" t="s">
-        <v>235</v>
       </c>
       <c r="F95" t="s">
         <v>29</v>
@@ -4034,15 +4032,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E96" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
@@ -4051,15 +4049,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F97" t="s">
         <v>25</v>
@@ -4068,15 +4066,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B98" t="s">
+        <v>237</v>
+      </c>
+      <c r="E98" t="s">
         <v>238</v>
-      </c>
-      <c r="E98" t="s">
-        <v>239</v>
       </c>
       <c r="F98" t="s">
         <v>29</v>
@@ -4085,15 +4083,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B99" t="s">
+        <v>239</v>
+      </c>
+      <c r="E99" t="s">
         <v>240</v>
-      </c>
-      <c r="E99" t="s">
-        <v>241</v>
       </c>
       <c r="F99" t="s">
         <v>29</v>
@@ -4102,15 +4100,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B100" t="s">
+        <v>241</v>
+      </c>
+      <c r="E100" t="s">
         <v>242</v>
-      </c>
-      <c r="E100" t="s">
-        <v>243</v>
       </c>
       <c r="F100" t="s">
         <v>29</v>
@@ -4119,15 +4117,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F101" t="s">
         <v>25</v>
@@ -4136,15 +4134,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F102" t="s">
         <v>25</v>
@@ -4153,15 +4151,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
@@ -4170,15 +4168,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
@@ -4187,15 +4185,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
@@ -4204,15 +4202,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E106" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
@@ -4221,15 +4219,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B107" t="s">
+        <v>249</v>
+      </c>
+      <c r="E107" t="s">
         <v>250</v>
-      </c>
-      <c r="E107" t="s">
-        <v>251</v>
       </c>
       <c r="F107" t="s">
         <v>25</v>
@@ -4238,15 +4236,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E108" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F108" t="s">
         <v>12</v>
@@ -4255,15 +4253,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B109" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E109" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
@@ -4272,15 +4270,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B110" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F110" t="s">
         <v>29</v>
@@ -4289,15 +4287,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B111" t="s">
+        <v>254</v>
+      </c>
+      <c r="E111" t="s">
         <v>255</v>
-      </c>
-      <c r="E111" t="s">
-        <v>256</v>
       </c>
       <c r="F111" t="s">
         <v>25</v>
@@ -4306,15 +4304,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E112" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
@@ -4323,15 +4321,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E113" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F113" t="s">
         <v>17</v>
@@ -4340,15 +4338,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E114" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F114" t="s">
         <v>29</v>
@@ -4357,18 +4355,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>259</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="E115" t="s">
         <v>262</v>
-      </c>
-      <c r="E115" t="s">
-        <v>263</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
@@ -4377,18 +4375,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C116" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>265</v>
-      </c>
       <c r="E116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F116" t="s">
         <v>12</v>
@@ -4397,18 +4395,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C117" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="E117" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F117" t="s">
         <v>25</v>
@@ -4417,18 +4415,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C118" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="E118" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F118" t="s">
         <v>29</v>
@@ -4437,15 +4435,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B119" t="s">
+        <v>269</v>
+      </c>
+      <c r="E119" t="s">
         <v>270</v>
-      </c>
-      <c r="E119" t="s">
-        <v>271</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
@@ -4454,15 +4452,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F120" t="s">
         <v>12</v>
@@ -4471,15 +4469,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F121" t="s">
         <v>25</v>
@@ -4488,15 +4486,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B122" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E122" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F122" t="s">
         <v>29</v>
@@ -4505,15 +4503,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B123" t="s">
+        <v>274</v>
+      </c>
+      <c r="E123" t="s">
         <v>275</v>
-      </c>
-      <c r="E123" t="s">
-        <v>276</v>
       </c>
       <c r="F123" t="s">
         <v>29</v>
@@ -4522,15 +4520,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F124" t="s">
         <v>25</v>
@@ -4539,15 +4537,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
@@ -4556,15 +4554,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B126" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E126" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F126" t="s">
         <v>12</v>
@@ -4573,15 +4571,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B127" t="s">
+        <v>279</v>
+      </c>
+      <c r="E127" t="s">
         <v>280</v>
-      </c>
-      <c r="E127" t="s">
-        <v>281</v>
       </c>
       <c r="F127" t="s">
         <v>29</v>
@@ -4590,15 +4588,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E128" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F128" t="s">
         <v>25</v>
@@ -4607,15 +4605,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E129" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F129" t="s">
         <v>17</v>
@@ -4624,15 +4622,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E130" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F130" t="s">
         <v>12</v>
@@ -4641,21 +4639,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>284</v>
+      </c>
+      <c r="B131" t="s">
         <v>285</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>286</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>286</v>
+      </c>
+      <c r="E131" t="s">
         <v>287</v>
-      </c>
-      <c r="D131" t="s">
-        <v>287</v>
-      </c>
-      <c r="E131" t="s">
-        <v>288</v>
       </c>
       <c r="F131" t="s">
         <v>12</v>
@@ -4664,21 +4662,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B132" t="s">
+        <v>288</v>
+      </c>
+      <c r="C132" t="s">
         <v>289</v>
       </c>
-      <c r="C132" t="s">
-        <v>290</v>
-      </c>
       <c r="D132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E132" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F132" t="s">
         <v>17</v>
@@ -4687,21 +4685,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B133" t="s">
+        <v>290</v>
+      </c>
+      <c r="C133" t="s">
         <v>291</v>
       </c>
-      <c r="C133" t="s">
-        <v>292</v>
-      </c>
       <c r="D133" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E133" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F133" t="s">
         <v>25</v>
@@ -4710,21 +4708,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B134" t="s">
+        <v>292</v>
+      </c>
+      <c r="C134" t="s">
         <v>293</v>
       </c>
-      <c r="C134" t="s">
-        <v>294</v>
-      </c>
       <c r="D134" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F134" t="s">
         <v>29</v>
@@ -4733,21 +4731,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B135" t="s">
+        <v>294</v>
+      </c>
+      <c r="C135" t="s">
         <v>295</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>295</v>
+      </c>
+      <c r="E135" t="s">
         <v>296</v>
-      </c>
-      <c r="D135" t="s">
-        <v>296</v>
-      </c>
-      <c r="E135" t="s">
-        <v>297</v>
       </c>
       <c r="F135" t="s">
         <v>12</v>
@@ -4756,21 +4754,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B136" t="s">
+        <v>297</v>
+      </c>
+      <c r="C136" t="s">
         <v>298</v>
       </c>
-      <c r="C136" t="s">
-        <v>299</v>
-      </c>
       <c r="D136" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E136" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F136" t="s">
         <v>17</v>
@@ -4779,21 +4777,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B137" t="s">
+        <v>299</v>
+      </c>
+      <c r="C137" t="s">
         <v>300</v>
       </c>
-      <c r="C137" t="s">
-        <v>301</v>
-      </c>
       <c r="D137" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E137" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F137" t="s">
         <v>25</v>
@@ -4802,21 +4800,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B138" t="s">
+        <v>301</v>
+      </c>
+      <c r="C138" t="s">
         <v>302</v>
       </c>
-      <c r="C138" t="s">
-        <v>303</v>
-      </c>
       <c r="D138" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F138" t="s">
         <v>29</v>
@@ -4825,21 +4823,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B139" t="s">
+        <v>303</v>
+      </c>
+      <c r="C139" t="s">
         <v>304</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="E139" t="s">
         <v>306</v>
-      </c>
-      <c r="E139" t="s">
-        <v>307</v>
       </c>
       <c r="F139" t="s">
         <v>29</v>
@@ -4848,21 +4846,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B140" t="s">
+        <v>307</v>
+      </c>
+      <c r="C140" t="s">
         <v>308</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="E140" t="s">
         <v>310</v>
-      </c>
-      <c r="E140" t="s">
-        <v>311</v>
       </c>
       <c r="F140" t="s">
         <v>29</v>
@@ -4871,21 +4869,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B141" t="s">
+        <v>311</v>
+      </c>
+      <c r="C141" t="s">
         <v>312</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="E141" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F141" t="s">
         <v>25</v>
@@ -4894,21 +4892,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B142" t="s">
+        <v>314</v>
+      </c>
+      <c r="C142" t="s">
         <v>315</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="E142" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F142" t="s">
         <v>25</v>
@@ -4917,21 +4915,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B143" t="s">
+        <v>317</v>
+      </c>
+      <c r="C143" t="s">
         <v>318</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="E143" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F143" t="s">
         <v>12</v>
@@ -4940,21 +4938,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B144" t="s">
+        <v>320</v>
+      </c>
+      <c r="C144" t="s">
         <v>321</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="E144" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F144" t="s">
         <v>17</v>
@@ -4963,21 +4961,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B145" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145" t="s">
         <v>324</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="E145" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F145" t="s">
         <v>12</v>
@@ -4986,21 +4984,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B146" t="s">
+        <v>326</v>
+      </c>
+      <c r="C146" t="s">
         <v>327</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="E146" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
@@ -5009,21 +5007,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>329</v>
+      </c>
+      <c r="B147" t="s">
         <v>330</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>331</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>331</v>
+      </c>
+      <c r="E147" t="s">
         <v>332</v>
-      </c>
-      <c r="D147" t="s">
-        <v>332</v>
-      </c>
-      <c r="E147" t="s">
-        <v>333</v>
       </c>
       <c r="F147" t="s">
         <v>25</v>
@@ -5032,21 +5030,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B148" t="s">
+        <v>333</v>
+      </c>
+      <c r="C148" t="s">
         <v>334</v>
       </c>
-      <c r="C148" t="s">
-        <v>335</v>
-      </c>
       <c r="D148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E148" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F148" t="s">
         <v>12</v>
@@ -5055,21 +5053,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B149" t="s">
+        <v>335</v>
+      </c>
+      <c r="C149" t="s">
         <v>336</v>
       </c>
-      <c r="C149" t="s">
-        <v>337</v>
-      </c>
       <c r="D149" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E149" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F149" t="s">
         <v>17</v>
@@ -5078,21 +5076,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B150" t="s">
+        <v>337</v>
+      </c>
+      <c r="C150" t="s">
         <v>338</v>
       </c>
-      <c r="C150" t="s">
-        <v>339</v>
-      </c>
       <c r="D150" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E150" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F150" t="s">
         <v>29</v>
@@ -5101,15 +5099,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B151" t="s">
+        <v>339</v>
+      </c>
+      <c r="E151" t="s">
         <v>340</v>
-      </c>
-      <c r="E151" t="s">
-        <v>341</v>
       </c>
       <c r="F151" t="s">
         <v>25</v>
@@ -5118,15 +5116,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B152" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
@@ -5135,15 +5133,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B153" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E153" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F153" t="s">
         <v>12</v>
@@ -5152,15 +5150,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B154" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E154" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F154" t="s">
         <v>29</v>
@@ -5169,338 +5167,389 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C159" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="D159" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E155" t="s">
-        <v>345</v>
-      </c>
-      <c r="F155" t="s">
+      <c r="E159" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F159" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>345</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E156" t="s">
-        <v>345</v>
-      </c>
-      <c r="F156" t="s">
-        <v>350</v>
-      </c>
-      <c r="G156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>345</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="E157" t="s">
-        <v>345</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="G159" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>381</v>
+      </c>
+      <c r="B160" t="s">
+        <v>532</v>
+      </c>
+      <c r="C160" t="s">
+        <v>402</v>
+      </c>
+      <c r="D160" t="s">
+        <v>403</v>
+      </c>
+      <c r="E160" t="s">
+        <v>404</v>
+      </c>
+      <c r="F160" t="s">
+        <v>29</v>
+      </c>
+      <c r="G160" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>381</v>
+      </c>
+      <c r="B161" t="s">
+        <v>533</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E161" t="s">
+        <v>381</v>
+      </c>
+      <c r="F161" t="s">
+        <v>29</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>381</v>
+      </c>
+      <c r="B162" t="s">
+        <v>534</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E162" t="s">
+        <v>381</v>
+      </c>
+      <c r="F162" t="s">
         <v>17</v>
       </c>
-      <c r="G157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>345</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D158" s="5" t="s">
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>381</v>
+      </c>
+      <c r="B163" t="s">
+        <v>535</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E163" t="s">
+        <v>381</v>
+      </c>
+      <c r="F163" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>381</v>
+      </c>
+      <c r="B164" t="s">
+        <v>536</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E164" t="s">
+        <v>381</v>
+      </c>
+      <c r="F164" t="s">
+        <v>25</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>354</v>
       </c>
-      <c r="E158" t="s">
-        <v>345</v>
-      </c>
-      <c r="F158" t="s">
-        <v>355</v>
-      </c>
-      <c r="G158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>356</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E159" t="s">
-        <v>356</v>
-      </c>
-      <c r="F159" t="s">
-        <v>25</v>
-      </c>
-      <c r="G159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>356</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E160" t="s">
-        <v>356</v>
-      </c>
-      <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>356</v>
-      </c>
-      <c r="C161" s="5" t="s">
+      <c r="B170" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C170" t="s">
+        <v>396</v>
+      </c>
+      <c r="D170" t="s">
+        <v>397</v>
+      </c>
+      <c r="E170" t="s">
+        <v>398</v>
+      </c>
+      <c r="F170" t="s">
+        <v>29</v>
+      </c>
+      <c r="G170" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>354</v>
+      </c>
+      <c r="B171" t="s">
+        <v>546</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D171" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E161" t="s">
-        <v>356</v>
-      </c>
-      <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>356</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E162" t="s">
-        <v>356</v>
-      </c>
-      <c r="F162" t="s">
-        <v>29</v>
-      </c>
-      <c r="G162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>365</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E163" t="s">
-        <v>365</v>
-      </c>
-      <c r="F163" t="s">
-        <v>25</v>
-      </c>
-      <c r="G163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>365</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E164" t="s">
-        <v>365</v>
-      </c>
-      <c r="F164" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>365</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E165" t="s">
-        <v>365</v>
-      </c>
-      <c r="F165" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>365</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E166" t="s">
-        <v>365</v>
-      </c>
-      <c r="F166" t="s">
-        <v>29</v>
-      </c>
-      <c r="G166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>374</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E167" t="s">
-        <v>374</v>
-      </c>
-      <c r="F167" t="s">
-        <v>29</v>
-      </c>
-      <c r="G167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>374</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E168" t="s">
-        <v>374</v>
-      </c>
-      <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>374</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E169" t="s">
-        <v>374</v>
-      </c>
-      <c r="F169" t="s">
-        <v>25</v>
-      </c>
-      <c r="G169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>374</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E170" t="s">
-        <v>374</v>
-      </c>
-      <c r="F170" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>383</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>385</v>
-      </c>
       <c r="E171" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="F171" t="s">
         <v>29</v>
@@ -5509,18 +5558,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>383</v>
+        <v>354</v>
+      </c>
+      <c r="B172" t="s">
+        <v>544</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="E172" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="F172" t="s">
         <v>17</v>
@@ -5529,18 +5581,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>383</v>
+        <v>354</v>
+      </c>
+      <c r="B173" t="s">
+        <v>543</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="E173" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="F173" t="s">
         <v>12</v>
@@ -5549,18 +5604,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>383</v>
+        <v>354</v>
+      </c>
+      <c r="B174" t="s">
+        <v>542</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="E174" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="F174" t="s">
         <v>25</v>
@@ -5569,121 +5627,136 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>345</v>
-      </c>
-      <c r="C175" t="s">
-        <v>392</v>
-      </c>
-      <c r="D175" t="s">
-        <v>393</v>
-      </c>
-      <c r="E175" t="s">
-        <v>394</v>
-      </c>
-      <c r="F175" t="s">
+    <row r="175" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F175" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>365</v>
-      </c>
-      <c r="C176" t="s">
-        <v>395</v>
-      </c>
-      <c r="D176" t="s">
-        <v>396</v>
-      </c>
-      <c r="E176" t="s">
-        <v>397</v>
-      </c>
-      <c r="F176" t="s">
+    <row r="176" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F176" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G176" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>356</v>
-      </c>
-      <c r="C177" t="s">
-        <v>398</v>
-      </c>
-      <c r="D177" t="s">
-        <v>399</v>
-      </c>
-      <c r="E177" t="s">
-        <v>400</v>
-      </c>
-      <c r="F177" t="s">
-        <v>29</v>
-      </c>
-      <c r="G177" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>374</v>
-      </c>
-      <c r="C178" t="s">
-        <v>401</v>
-      </c>
-      <c r="D178" t="s">
-        <v>402</v>
-      </c>
-      <c r="E178" t="s">
-        <v>403</v>
-      </c>
-      <c r="F178" t="s">
-        <v>29</v>
-      </c>
-      <c r="G178" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>383</v>
-      </c>
-      <c r="C179" t="s">
-        <v>404</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="G176" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>405</v>
       </c>
-      <c r="E179" t="s">
+      <c r="B180" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F179" t="s">
-        <v>29</v>
-      </c>
-      <c r="G179" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="D180" t="s">
         <v>407</v>
       </c>
-      <c r="B180" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="C180" s="7" t="s">
+      <c r="E180" t="s">
         <v>408</v>
-      </c>
-      <c r="D180" t="s">
-        <v>409</v>
-      </c>
-      <c r="E180" t="s">
-        <v>410</v>
       </c>
       <c r="F180" t="s">
         <v>29</v>
@@ -5692,21 +5765,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D181" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E181" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F181" t="s">
         <v>17</v>
@@ -5715,21 +5788,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D182" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E182" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F182" t="s">
         <v>12</v>
@@ -5738,21 +5811,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D183" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E183" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F183" t="s">
         <v>25</v>
@@ -5761,21 +5834,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C184" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D184" t="s">
+        <v>416</v>
+      </c>
+      <c r="E184" t="s">
         <v>417</v>
-      </c>
-      <c r="D184" t="s">
-        <v>418</v>
-      </c>
-      <c r="E184" t="s">
-        <v>419</v>
       </c>
       <c r="F184" t="s">
         <v>29</v>
@@ -5784,21 +5857,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D185" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E185" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F185" t="s">
         <v>17</v>
@@ -5807,21 +5880,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D186" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E186" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F186" t="s">
         <v>12</v>
@@ -5830,21 +5903,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D187" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E187" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F187" t="s">
         <v>25</v>
@@ -5853,21 +5926,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B188" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C188" t="s">
+        <v>424</v>
+      </c>
+      <c r="D188" t="s">
+        <v>425</v>
+      </c>
+      <c r="E188" t="s">
         <v>426</v>
-      </c>
-      <c r="D188" t="s">
-        <v>427</v>
-      </c>
-      <c r="E188" t="s">
-        <v>428</v>
       </c>
       <c r="F188" t="s">
         <v>29</v>
@@ -5876,21 +5949,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B189" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C189" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D189" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E189" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F189" t="s">
         <v>17</v>
@@ -5899,21 +5972,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B190" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C190" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D190" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E190" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F190" t="s">
         <v>12</v>
@@ -5922,21 +5995,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B191" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C191" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D191" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E191" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F191" t="s">
         <v>25</v>
@@ -5945,447 +6018,725 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="192" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F192" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G192" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E196" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F196" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D201" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="E201" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="D192" t="s">
+      <c r="F201" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C202" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="E192" t="s">
+      <c r="D202" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="F192" t="s">
+      <c r="E202" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G204" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F205" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G192" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>435</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D193" t="s">
-        <v>440</v>
-      </c>
-      <c r="E193" t="s">
-        <v>438</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="G205" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F206" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>435</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D194" t="s">
-        <v>442</v>
-      </c>
-      <c r="E194" t="s">
-        <v>438</v>
-      </c>
-      <c r="F194" t="s">
+      <c r="G206" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F207" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G194" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>435</v>
-      </c>
-      <c r="C195" t="s">
-        <v>443</v>
-      </c>
-      <c r="D195" t="s">
-        <v>444</v>
-      </c>
-      <c r="E195" t="s">
-        <v>438</v>
-      </c>
-      <c r="F195" t="s">
+      <c r="G207" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F208" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G195" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>435</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="D196" t="s">
-        <v>446</v>
-      </c>
-      <c r="E196" t="s">
-        <v>447</v>
-      </c>
-      <c r="F196" t="s">
+      <c r="G208" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F209" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G196" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>435</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="D197" t="s">
-        <v>449</v>
-      </c>
-      <c r="E197" t="s">
-        <v>447</v>
-      </c>
-      <c r="F197" t="s">
+      <c r="G209" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F210" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G197" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>435</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="D198" t="s">
-        <v>451</v>
-      </c>
-      <c r="E198" t="s">
-        <v>447</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="G210" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F211" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G198" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>435</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D199" t="s">
-        <v>453</v>
-      </c>
-      <c r="E199" t="s">
-        <v>447</v>
-      </c>
-      <c r="F199" t="s">
+      <c r="G211" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F212" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G199" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>435</v>
-      </c>
-      <c r="C200" t="s">
-        <v>454</v>
-      </c>
-      <c r="D200" t="s">
-        <v>455</v>
-      </c>
-      <c r="E200" t="s">
-        <v>456</v>
-      </c>
-      <c r="F200" t="s">
+      <c r="G212" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F213" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G200" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>435</v>
-      </c>
-      <c r="C201" t="s">
-        <v>457</v>
-      </c>
-      <c r="D201" t="s">
-        <v>458</v>
-      </c>
-      <c r="E201" t="s">
-        <v>456</v>
-      </c>
-      <c r="F201" t="s">
+      <c r="G213" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F214" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G201" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>435</v>
-      </c>
-      <c r="C202" t="s">
-        <v>459</v>
-      </c>
-      <c r="D202" t="s">
-        <v>460</v>
-      </c>
-      <c r="E202" t="s">
-        <v>456</v>
-      </c>
-      <c r="F202" t="s">
+      <c r="G214" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F215" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G202" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>435</v>
-      </c>
-      <c r="C203" t="s">
-        <v>461</v>
-      </c>
-      <c r="D203" t="s">
-        <v>462</v>
-      </c>
-      <c r="E203" t="s">
-        <v>456</v>
-      </c>
-      <c r="F203" t="s">
+      <c r="G215" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F216" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G203" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>435</v>
-      </c>
-      <c r="C204" t="s">
-        <v>463</v>
-      </c>
-      <c r="D204" t="s">
-        <v>464</v>
-      </c>
-      <c r="E204" t="s">
-        <v>465</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="G216" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F217" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G204" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>435</v>
-      </c>
-      <c r="C205" t="s">
-        <v>466</v>
-      </c>
-      <c r="D205" t="s">
-        <v>467</v>
-      </c>
-      <c r="E205" t="s">
-        <v>465</v>
-      </c>
-      <c r="F205" t="s">
+      <c r="G217" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F218" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G205" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>435</v>
-      </c>
-      <c r="C206" t="s">
-        <v>468</v>
-      </c>
-      <c r="D206" t="s">
-        <v>469</v>
-      </c>
-      <c r="E206" t="s">
-        <v>465</v>
-      </c>
-      <c r="F206" t="s">
+      <c r="G218" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F220" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G206" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>435</v>
-      </c>
-      <c r="C207" t="s">
-        <v>470</v>
-      </c>
-      <c r="D207" t="s">
-        <v>471</v>
-      </c>
-      <c r="E207" t="s">
-        <v>465</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="G220" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F222" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G207" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>435</v>
-      </c>
-      <c r="C208" t="s">
-        <v>472</v>
-      </c>
-      <c r="D208" t="s">
-        <v>473</v>
-      </c>
-      <c r="E208" t="s">
-        <v>474</v>
-      </c>
-      <c r="F208" t="s">
-        <v>29</v>
-      </c>
-      <c r="G208" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>435</v>
-      </c>
-      <c r="C209" t="s">
-        <v>475</v>
-      </c>
-      <c r="D209" t="s">
-        <v>476</v>
-      </c>
-      <c r="E209" t="s">
-        <v>474</v>
-      </c>
-      <c r="F209" t="s">
-        <v>17</v>
-      </c>
-      <c r="G209" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>435</v>
-      </c>
-      <c r="C210" t="s">
-        <v>477</v>
-      </c>
-      <c r="D210" t="s">
-        <v>478</v>
-      </c>
-      <c r="E210" t="s">
-        <v>474</v>
-      </c>
-      <c r="F210" t="s">
-        <v>479</v>
-      </c>
-      <c r="G210" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>435</v>
-      </c>
-      <c r="C211" t="s">
-        <v>480</v>
-      </c>
-      <c r="D211" t="s">
-        <v>481</v>
-      </c>
-      <c r="E211" t="s">
-        <v>474</v>
-      </c>
-      <c r="F211" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>435</v>
-      </c>
-      <c r="C212" t="s">
-        <v>482</v>
-      </c>
-      <c r="D212" t="s">
-        <v>483</v>
-      </c>
-      <c r="E212" t="s">
-        <v>474</v>
-      </c>
-      <c r="F212" t="s">
-        <v>350</v>
-      </c>
-      <c r="G212" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>435</v>
-      </c>
-      <c r="C213" t="s">
-        <v>484</v>
-      </c>
-      <c r="D213" t="s">
-        <v>485</v>
-      </c>
-      <c r="E213" t="s">
-        <v>474</v>
-      </c>
-      <c r="F213" t="s">
-        <v>25</v>
-      </c>
-      <c r="G213" t="s">
+      <c r="G222" s="8" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A155:G179">
+    <sortCondition ref="A155:A179"/>
+    <sortCondition descending="1" ref="G155:G179"/>
+    <sortCondition ref="F155:F179"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ChimerismFileMetaData.xlsx
+++ b/ChimerismFileMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reiko\Documents\chimerism_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3851BC-508B-4C86-8E41-15C0C6D15C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD944F-5257-44CE-AFCD-4FD2870F32E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>PPID1998</t>
   </si>
   <si>
-    <t>1799FL-21-01-88_S88_L003_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-21-01-88</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Post</t>
   </si>
   <si>
-    <t>1799FL-21-01-89_S89_L003_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-21-01-89</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>HSC</t>
   </si>
   <si>
-    <t>1799FL-21-01-90_S90_L003_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-21-01-90</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
     <t>ELSE</t>
   </si>
   <si>
-    <t>1799FL-21-01-93_S93_L003_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-21-01-93</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>PROG</t>
   </si>
   <si>
-    <t>1799FL-21-01-94_S94_L003_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-21-01-94</t>
   </si>
   <si>
@@ -128,9 +113,6 @@
     <t>BULK</t>
   </si>
   <si>
-    <t>1799FL-23-01-01_S1_L001_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-23-01-01</t>
   </si>
   <si>
@@ -140,36 +122,24 @@
     <t>HMTB3826</t>
   </si>
   <si>
-    <t>1799FL-23-01-09_S9_L001_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-23-01-09</t>
   </si>
   <si>
     <t>BK_3826_HSC</t>
   </si>
   <si>
-    <t>1799FL-23-01-20_S20_L001_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-23-01-20</t>
   </si>
   <si>
     <t>3862_LMPP</t>
   </si>
   <si>
-    <t>1799FL-23-01-32_S32_L001_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-23-01-32</t>
   </si>
   <si>
     <t>3862_Prog</t>
   </si>
   <si>
-    <t>1799FL-23-01-93_S93_L001_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-23-01-93</t>
   </si>
   <si>
@@ -182,9 +152,6 @@
     <t>Pre</t>
   </si>
   <si>
-    <t>1799FL-29-01-07_S69_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-07</t>
   </si>
   <si>
@@ -194,9 +161,6 @@
     <t>HMTB4023</t>
   </si>
   <si>
-    <t>1799FL-29-01-08_S70_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-08</t>
   </si>
   <si>
@@ -1608,6 +1572,42 @@
   </si>
   <si>
     <t>Farrell_30_CD45RApos_S12</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-88_S88_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-89_S89_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-90_S90_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-93_S93_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-94_S94_L003</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-01_S1_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-09_S9_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-20_S20_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-32_S32_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-93_S93_L001</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-07_S69_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-08_S70_L007</t>
   </si>
 </sst>
 </file>
@@ -2039,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="141" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,22 +2081,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2104,22 +2104,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2127,22 +2127,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2150,22 +2150,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>515</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2173,22 +2173,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>516</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2196,22 +2196,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>517</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2219,22 +2219,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>518</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2242,22 +2242,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>519</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2265,22 +2265,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>520</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2288,22 +2288,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>521</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2311,22 +2311,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>522</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2334,22 +2334,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>523</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2357,22 +2357,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2380,22 +2380,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2403,22 +2403,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2426,22 +2426,22 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2449,22 +2449,22 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2472,22 +2472,22 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2495,22 +2495,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2518,22 +2518,22 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2541,22 +2541,22 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2564,22 +2564,22 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2587,22 +2587,22 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2610,678 +2610,678 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C26" t="str">
         <f>LEFT(B26,15)</f>
         <v>1799FL-21-01-86</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ref="C27:C45" si="0">LEFT(B27,15)</f>
         <v>1799FL-21-01-87</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-21-01-91</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-21-01-92</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-21-01-96</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
         <v>93</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-03</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-07</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-10</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-12</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-15</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-18</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-19</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-21</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-25</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-27</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-28</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-30</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-31</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-90</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v>LowInput_1799FL</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B46" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ref="C46:C53" si="1">LEFT(B46, 6)</f>
         <v>36_S10</v>
       </c>
       <c r="E46" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B47" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
         <v>38_S18</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B48" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
         <v>39_S19</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B49" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
         <v>41_S11</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B50" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
         <v>42_S12</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B51" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
         <v>43_S20</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B52" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
         <v>44_S21</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B53" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
         <v>45_S22</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B54" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C54" t="str">
         <f>LEFT(B54, 18)</f>
@@ -3292,21 +3292,21 @@
         <v>Farrell_30_Bulk_S2</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B55" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C55" t="str">
         <f>LEFT(B55, 22)</f>
@@ -3317,21 +3317,21 @@
         <v>Farrell_30_CD38pos_S11</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B56" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C56" t="str">
         <f>LEFT(B56, 24)</f>
@@ -3342,21 +3342,21 @@
         <v>Farrell_30_CD45RAneg_S13</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>499</v>
+      </c>
+      <c r="B57" t="s">
         <v>511</v>
-      </c>
-      <c r="B57" t="s">
-        <v>523</v>
       </c>
       <c r="C57" t="str">
         <f>LEFT(B57, 24)</f>
@@ -3367,21 +3367,21 @@
         <v>Farrell_30_CD45RApos_S12</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" ref="C58:D60" si="2">LEFT(B58, 12)</f>
@@ -3392,21 +3392,21 @@
         <v>H1487-15_S15</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
@@ -3417,21 +3417,21 @@
         <v>H1487-16_S16</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
@@ -3442,3214 +3442,3214 @@
         <v>H1487-18_S18</v>
       </c>
       <c r="E60" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E65" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E66" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E71" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E72" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E73" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E74" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E75" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="E76" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="E77" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="E78" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B79" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E79" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B80" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E80" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="E81" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B82" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E82" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B83" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E83" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B84" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E84" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E85" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B86" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E86" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B87" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E87" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="E88" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E89" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E91" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B92" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E92" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B93" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E93" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E94" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B95" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E95" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B96" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E96" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B99" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B100" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B101" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B102" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E102" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B103" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E103" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B104" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E104" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B105" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E105" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E106" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E107" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E108" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E109" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B111" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E114" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E115" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E116" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E117" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>185</v>
+      </c>
+      <c r="B118" t="s">
+        <v>454</v>
+      </c>
+      <c r="E118" t="s">
         <v>197</v>
       </c>
-      <c r="B118" t="s">
-        <v>466</v>
-      </c>
-      <c r="E118" t="s">
-        <v>209</v>
-      </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" t="s">
+        <v>455</v>
+      </c>
+      <c r="E119" t="s">
         <v>197</v>
       </c>
-      <c r="B119" t="s">
-        <v>467</v>
-      </c>
-      <c r="E119" t="s">
-        <v>209</v>
-      </c>
       <c r="F119" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>185</v>
+      </c>
+      <c r="B120" t="s">
+        <v>456</v>
+      </c>
+      <c r="E120" t="s">
         <v>197</v>
       </c>
-      <c r="B120" t="s">
-        <v>468</v>
-      </c>
-      <c r="E120" t="s">
-        <v>209</v>
-      </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>185</v>
+      </c>
+      <c r="B121" t="s">
+        <v>457</v>
+      </c>
+      <c r="E121" t="s">
         <v>197</v>
       </c>
-      <c r="B121" t="s">
-        <v>469</v>
-      </c>
-      <c r="E121" t="s">
-        <v>209</v>
-      </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C122" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D122" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E122" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B123" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C123" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D123" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E123" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B124" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C124" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D124" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E124" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D125" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E125" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D126" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E126" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B127" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C127" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D127" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E127" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C128" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D128" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E128" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G128" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B129" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C129" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D129" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E129" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G129" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>198</v>
+      </c>
+      <c r="B130" t="s">
+        <v>209</v>
+      </c>
+      <c r="C130" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B130" t="s">
-        <v>221</v>
-      </c>
-      <c r="C130" t="s">
-        <v>221</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="E130" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C131" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E131" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B132" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C132" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E132" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B133" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C133" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E133" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F133" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E134" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C135" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E135" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C136" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E136" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C137" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E137" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B138" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C138" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D138" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E138" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F138" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B139" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C139" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D139" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E139" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B140" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C140" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D140" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E140" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B141" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C141" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D141" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E141" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B142" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E142" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F142" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G142" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B143" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E143" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G143" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B144" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E144" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G144" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B145" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E145" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G145" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B146" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C146" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D146" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E146" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G146" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E147" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B148" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E148" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B149" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E149" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F149" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B150" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E150" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F150" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B151" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C151" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D151" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E151" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G151" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B152" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E152" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B153" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E153" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B154" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E154" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B155" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E155" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F155" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B156" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C156" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D156" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E156" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G156" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B157" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E157" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B158" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E158" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B159" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E159" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E160" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F160" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B161" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C161" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D161" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E161" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G161" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B162" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E162" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B163" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E163" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B164" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E164" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B165" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E165" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F165" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B166" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C166" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D166" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E166" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G166" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B167" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E167" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E168" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B169" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E169" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B170" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E170" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F170" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B171" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C171" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D171" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E171" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G171" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B172" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C172" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D172" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E172" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G172" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B173" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C173" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D173" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E173" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G173" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B174" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C174" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D174" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E174" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F174" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G174" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>294</v>
+      </c>
+      <c r="B175" t="s">
+        <v>381</v>
+      </c>
+      <c r="C175" t="s">
+        <v>304</v>
+      </c>
+      <c r="D175" t="s">
+        <v>305</v>
+      </c>
+      <c r="E175" t="s">
         <v>306</v>
       </c>
-      <c r="B175" t="s">
-        <v>393</v>
-      </c>
-      <c r="C175" t="s">
-        <v>316</v>
-      </c>
-      <c r="D175" t="s">
-        <v>317</v>
-      </c>
-      <c r="E175" t="s">
-        <v>318</v>
-      </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>294</v>
+      </c>
+      <c r="B176" t="s">
+        <v>382</v>
+      </c>
+      <c r="C176" t="s">
+        <v>307</v>
+      </c>
+      <c r="D176" t="s">
+        <v>308</v>
+      </c>
+      <c r="E176" t="s">
         <v>306</v>
       </c>
-      <c r="B176" t="s">
-        <v>394</v>
-      </c>
-      <c r="C176" t="s">
-        <v>319</v>
-      </c>
-      <c r="D176" t="s">
-        <v>320</v>
-      </c>
-      <c r="E176" t="s">
-        <v>318</v>
-      </c>
       <c r="F176" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>294</v>
+      </c>
+      <c r="B177" t="s">
+        <v>383</v>
+      </c>
+      <c r="C177" t="s">
+        <v>309</v>
+      </c>
+      <c r="D177" t="s">
+        <v>310</v>
+      </c>
+      <c r="E177" t="s">
         <v>306</v>
       </c>
-      <c r="B177" t="s">
-        <v>395</v>
-      </c>
-      <c r="C177" t="s">
-        <v>321</v>
-      </c>
-      <c r="D177" t="s">
-        <v>322</v>
-      </c>
-      <c r="E177" t="s">
-        <v>318</v>
-      </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>294</v>
+      </c>
+      <c r="B178" t="s">
+        <v>384</v>
+      </c>
+      <c r="C178" t="s">
+        <v>311</v>
+      </c>
+      <c r="D178" t="s">
+        <v>312</v>
+      </c>
+      <c r="E178" t="s">
         <v>306</v>
       </c>
-      <c r="B178" t="s">
-        <v>396</v>
-      </c>
-      <c r="C178" t="s">
-        <v>323</v>
-      </c>
-      <c r="D178" t="s">
-        <v>324</v>
-      </c>
-      <c r="E178" t="s">
-        <v>318</v>
-      </c>
       <c r="F178" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B179" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C179" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D179" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E179" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B180" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C180" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D180" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E180" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B181" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C181" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D181" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E181" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B182" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C182" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D182" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E182" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F182" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B184" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C184" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D184" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E184" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F184" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G184" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B185" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C185" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D185" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E185" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F185" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G185" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B186" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C186" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D186" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E186" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G186" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B188" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C188" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D188" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E188" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F188" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B189" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C189" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D189" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E189" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B190" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C190" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D190" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E190" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F190" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B191" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C191" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D191" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E191" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F191" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B192" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C192" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D192" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E192" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B193" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C193" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D193" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E193" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F193" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B194" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C194" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D194" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E194" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B195" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C195" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D195" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E195" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F195" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>322</v>
+      </c>
+      <c r="B196" t="s">
+        <v>402</v>
+      </c>
+      <c r="C196" t="s">
+        <v>332</v>
+      </c>
+      <c r="D196" t="s">
+        <v>333</v>
+      </c>
+      <c r="E196" t="s">
         <v>334</v>
       </c>
-      <c r="B196" t="s">
-        <v>414</v>
-      </c>
-      <c r="C196" t="s">
-        <v>344</v>
-      </c>
-      <c r="D196" t="s">
-        <v>345</v>
-      </c>
-      <c r="E196" t="s">
-        <v>346</v>
-      </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>322</v>
+      </c>
+      <c r="B197" t="s">
+        <v>406</v>
+      </c>
+      <c r="C197" t="s">
+        <v>335</v>
+      </c>
+      <c r="D197" t="s">
+        <v>336</v>
+      </c>
+      <c r="E197" t="s">
         <v>334</v>
       </c>
-      <c r="B197" t="s">
-        <v>418</v>
-      </c>
-      <c r="C197" t="s">
-        <v>347</v>
-      </c>
-      <c r="D197" t="s">
-        <v>348</v>
-      </c>
-      <c r="E197" t="s">
-        <v>346</v>
-      </c>
       <c r="F197" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>322</v>
+      </c>
+      <c r="B198" t="s">
+        <v>393</v>
+      </c>
+      <c r="C198" t="s">
+        <v>337</v>
+      </c>
+      <c r="D198" t="s">
+        <v>338</v>
+      </c>
+      <c r="E198" t="s">
         <v>334</v>
       </c>
-      <c r="B198" t="s">
-        <v>405</v>
-      </c>
-      <c r="C198" t="s">
-        <v>349</v>
-      </c>
-      <c r="D198" t="s">
-        <v>350</v>
-      </c>
-      <c r="E198" t="s">
-        <v>346</v>
-      </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>322</v>
+      </c>
+      <c r="B199" t="s">
+        <v>394</v>
+      </c>
+      <c r="C199" t="s">
+        <v>339</v>
+      </c>
+      <c r="D199" t="s">
+        <v>340</v>
+      </c>
+      <c r="E199" t="s">
         <v>334</v>
       </c>
-      <c r="B199" t="s">
-        <v>406</v>
-      </c>
-      <c r="C199" t="s">
-        <v>351</v>
-      </c>
-      <c r="D199" t="s">
-        <v>352</v>
-      </c>
-      <c r="E199" t="s">
-        <v>346</v>
-      </c>
       <c r="F199" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B200" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C200" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D200" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E200" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B201" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C201" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D201" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E201" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F201" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B202" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C202" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D202" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E202" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B203" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C203" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D203" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E203" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F203" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B204" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C204" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D204" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E204" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B205" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C205" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D205" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E205" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B206" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C206" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D206" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E206" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B207" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C207" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D207" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E207" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F207" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B208" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C208" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D208" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E208" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B209" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C209" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D209" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E209" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F209" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G209" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B210" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C210" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D210" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E210" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F210" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G210" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B211" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C211" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D211" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E211" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B212" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C212" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D212" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E212" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F212" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B213" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C213" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D213" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E213" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F213" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ChimerismFileMetaData.xlsx
+++ b/ChimerismFileMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reiko\Documents\chimerism_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD944F-5257-44CE-AFCD-4FD2870F32E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B1F80-2722-4E8D-9E8D-3AF1EF7D0119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>HMTB4286</t>
   </si>
   <si>
-    <t>1799FL-29-01-09_S71_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-09</t>
   </si>
   <si>
@@ -182,99 +179,66 @@
     <t>HMTB4543</t>
   </si>
   <si>
-    <t>1799FL-29-01-20_S82_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-20</t>
   </si>
   <si>
     <t>HMTB4023_ELse</t>
   </si>
   <si>
-    <t>1799FL-29-01-34_S96_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-34</t>
   </si>
   <si>
     <t>HMTB4280_LMPP</t>
   </si>
   <si>
-    <t>1799FL-29-01-35_S97_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-35</t>
   </si>
   <si>
     <t>HMTB4280_HSC</t>
   </si>
   <si>
-    <t>1799FL-29-01-36_S98_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-36</t>
   </si>
   <si>
     <t>HMTB4280_Else</t>
   </si>
   <si>
-    <t>1799FL-29-01-37_S99_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-37</t>
   </si>
   <si>
     <t>HMTB4280_Prog</t>
   </si>
   <si>
-    <t>1799FL-29-01-38_S100_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-38</t>
   </si>
   <si>
     <t>HMTB4023_LMPP</t>
   </si>
   <si>
-    <t>1799FL-29-01-39_S101_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-39</t>
   </si>
   <si>
     <t>HMTB4023_HSC</t>
   </si>
   <si>
-    <t>1799FL-29-01-40_S102_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-40</t>
   </si>
   <si>
     <t>HMTB4023_Prog</t>
   </si>
   <si>
-    <t>1799FL-29-01-56_S118_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-56</t>
   </si>
   <si>
     <t>HMTB4543_LMPP</t>
   </si>
   <si>
-    <t>1799FL-29-01-57_S119_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-57</t>
   </si>
   <si>
     <t>HMTB4543_HSC</t>
   </si>
   <si>
-    <t>1799FL-29-01-58_S120_L007_coverage.txt</t>
-  </si>
-  <si>
     <t>1799FL-29-01-58</t>
   </si>
   <si>
@@ -284,144 +248,84 @@
     <t>PPID1706</t>
   </si>
   <si>
-    <t>1799FL-21-01-86_S86_L003.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_TP_31_Else</t>
   </si>
   <si>
     <t>HMTB3156</t>
   </si>
   <si>
-    <t>1799FL-21-01-87_S87_L003.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_TP_31_HSC</t>
   </si>
   <si>
-    <t>1799FL-21-01-91_S91_L003.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_TP_31_Prog</t>
   </si>
   <si>
-    <t>1799FL-21-01-92_S92_L003.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_TP_31_LMPP</t>
   </si>
   <si>
-    <t>1799FL-21-01-96_S96_L003.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_TP_3156_Bulk</t>
   </si>
   <si>
-    <t>1799FL-23-01-03_S3_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_3413_Prog</t>
   </si>
   <si>
     <t>HMTB3413</t>
   </si>
   <si>
-    <t>1799FL-23-01-07_S7_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_3622_HSC</t>
   </si>
   <si>
     <t>HMTB3622</t>
   </si>
   <si>
-    <t>1799FL-23-01-10_S10_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_3413_LMPP</t>
   </si>
   <si>
-    <t>1799FL-23-01-12_S12_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_3622_Prog</t>
   </si>
   <si>
-    <t>1799FL-23-01-15_S15_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_3413_34mid LMPP</t>
   </si>
   <si>
     <t>34mid LMPP</t>
   </si>
   <si>
-    <t>1799FL-23-01-18_S18_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_3622_LMPP</t>
   </si>
   <si>
-    <t>1799FL-23-01-19_S19_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_4071_HSC</t>
   </si>
   <si>
     <t>HMTB4071</t>
   </si>
   <si>
-    <t>1799FL-23-01-21_S21_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_3413_HSC</t>
   </si>
   <si>
-    <t>1799FL-23-01-25_S25_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_4071_LMPP</t>
   </si>
   <si>
-    <t>1799FL-23-01-27_S27_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_3622_Bulk</t>
   </si>
   <si>
-    <t>1799FL-23-01-28_S28_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_3413_Bulk</t>
   </si>
   <si>
-    <t>1799FL-23-01-30_S30_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_4071_Prog</t>
   </si>
   <si>
-    <t>1799FL-23-01-31_S31_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_3413_34mid HSC</t>
   </si>
   <si>
     <t>34mid HSC</t>
   </si>
   <si>
-    <t>1799FL-23-01-90_S90_L001.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_2535</t>
   </si>
   <si>
     <t>HMTB2535</t>
   </si>
   <si>
-    <t>LowInput_1799FL-23-01-04.snps_filtered.vcf.gz</t>
-  </si>
-  <si>
     <t>BK_4071_Bulk</t>
   </si>
   <si>
@@ -1608,6 +1512,102 @@
   </si>
   <si>
     <t>1799FL-29-01-08_S70_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-09_S71_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-20_S82_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-34_S96_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-35_S97_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-36_S98_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-37_S99_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-38_S100_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-39_S101_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-40_S102_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-56_S118_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-57_S119_L007</t>
+  </si>
+  <si>
+    <t>1799FL-29-01-58_S120_L007</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-86_S86_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-87_S87_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-91_S91_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-92_S92_L003</t>
+  </si>
+  <si>
+    <t>1799FL-21-01-96_S96_L003</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-03_S3_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-07_S7_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-10_S10_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-12_S12_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-15_S15_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-18_S18_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-19_S19_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-21_S21_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-25_S25_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-27_S27_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-28_S28_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-30_S30_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-31_S31_L001</t>
+  </si>
+  <si>
+    <t>1799FL-23-01-90_S90_L001</t>
+  </si>
+  <si>
+    <t>LowInput_1799FL-23-01-04</t>
   </si>
 </sst>
 </file>
@@ -2039,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="141" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2104,7 +2104,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2127,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -2150,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -2173,7 +2173,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -2219,7 +2219,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -2242,7 +2242,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2265,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2288,7 +2288,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -2311,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -2334,7 +2334,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -2357,16 +2357,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>492</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
@@ -2380,13 +2380,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
+        <v>493</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -2403,13 +2403,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>494</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
@@ -2426,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>495</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
@@ -2449,13 +2449,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>496</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
@@ -2472,13 +2472,13 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>497</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
@@ -2495,13 +2495,13 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>498</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
@@ -2518,13 +2518,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>499</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -2541,13 +2541,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>500</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
@@ -2564,16 +2564,16 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>501</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -2587,16 +2587,16 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>502</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -2610,16 +2610,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>503</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
         <v>21</v>
@@ -2630,20 +2630,20 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="C26" t="str">
         <f>LEFT(B26,15)</f>
         <v>1799FL-21-01-86</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -2654,20 +2654,20 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>505</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ref="C27:C45" si="0">LEFT(B27,15)</f>
         <v>1799FL-21-01-87</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -2678,20 +2678,20 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>506</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-21-01-91</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
         <v>21</v>
@@ -2702,20 +2702,20 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>507</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-21-01-92</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -2726,20 +2726,20 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>508</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-21-01-96</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
@@ -2750,20 +2750,20 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>509</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-03</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
         <v>21</v>
@@ -2774,20 +2774,20 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>510</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-07</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -2798,20 +2798,20 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>511</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-10</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -2822,20 +2822,20 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>512</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-12</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
         <v>21</v>
@@ -2846,23 +2846,23 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>513</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-15</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -2870,20 +2870,20 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>514</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-18</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -2894,20 +2894,20 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>515</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-19</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
@@ -2918,20 +2918,20 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>516</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-21</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
@@ -2942,20 +2942,20 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>517</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-25</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -2966,20 +2966,20 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>518</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-27</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
         <v>24</v>
@@ -2990,20 +2990,20 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>519</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-28</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
         <v>24</v>
@@ -3014,20 +3014,20 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>520</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-30</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
         <v>21</v>
@@ -3038,23 +3038,23 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>521</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-31</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -3062,20 +3062,20 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>522</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>1799FL-23-01-90</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F44" t="s">
         <v>24</v>
@@ -3086,20 +3086,20 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>523</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v>LowInput_1799FL</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
         <v>24</v>
@@ -3110,17 +3110,17 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B46" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ref="C46:C53" si="1">LEFT(B46, 6)</f>
         <v>36_S10</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
         <v>21</v>
@@ -3131,17 +3131,17 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B47" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
         <v>38_S18</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -3152,17 +3152,17 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B48" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
         <v>39_S19</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -3173,17 +3173,17 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B49" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
         <v>41_S11</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
         <v>21</v>
@@ -3194,17 +3194,17 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B50" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
         <v>42_S12</v>
       </c>
       <c r="E50" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -3215,17 +3215,17 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B51" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
         <v>43_S20</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
@@ -3236,17 +3236,17 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B52" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
         <v>44_S21</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
         <v>24</v>
@@ -3257,17 +3257,17 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
         <v>45_S22</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
         <v>24</v>
@@ -3278,10 +3278,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B54" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="C54" t="str">
         <f>LEFT(B54, 18)</f>
@@ -3292,7 +3292,7 @@
         <v>Farrell_30_Bulk_S2</v>
       </c>
       <c r="E54" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
         <v>24</v>
@@ -3303,10 +3303,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B55" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="C55" t="str">
         <f>LEFT(B55, 22)</f>
@@ -3317,7 +3317,7 @@
         <v>Farrell_30_CD38pos_S11</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
         <v>21</v>
@@ -3328,10 +3328,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B56" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="C56" t="str">
         <f>LEFT(B56, 24)</f>
@@ -3342,7 +3342,7 @@
         <v>Farrell_30_CD45RAneg_S13</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
@@ -3353,10 +3353,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="B57" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="C57" t="str">
         <f>LEFT(B57, 24)</f>
@@ -3367,7 +3367,7 @@
         <v>Farrell_30_CD45RApos_S12</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" ref="C58:D60" si="2">LEFT(B58, 12)</f>
@@ -3392,7 +3392,7 @@
         <v>H1487-15_S15</v>
       </c>
       <c r="E58" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
         <v>24</v>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
@@ -3417,7 +3417,7 @@
         <v>H1487-16_S16</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
         <v>21</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
@@ -3442,10 +3442,10 @@
         <v>H1487-18_S18</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
@@ -3453,19 +3453,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F61" t="s">
         <v>24</v>
@@ -3476,19 +3476,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F62" t="s">
         <v>21</v>
@@ -3499,19 +3499,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -3522,19 +3522,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
@@ -3545,16 +3545,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="F65" t="s">
         <v>24</v>
@@ -3565,16 +3565,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="F66" t="s">
         <v>21</v>
@@ -3585,16 +3585,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -3605,16 +3605,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
@@ -3625,16 +3625,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F69" t="s">
         <v>24</v>
@@ -3645,16 +3645,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
         <v>21</v>
@@ -3665,16 +3665,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -3685,16 +3685,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
@@ -3705,13 +3705,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="E73" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
         <v>24</v>
@@ -3722,13 +3722,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="E74" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
         <v>21</v>
@@ -3739,13 +3739,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="E75" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -3756,13 +3756,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="E76" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
@@ -3773,13 +3773,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="E77" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
         <v>24</v>
@@ -3790,13 +3790,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="E78" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
         <v>21</v>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="E79" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
         <v>24</v>
@@ -3824,13 +3824,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B80" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="E80" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
@@ -3841,13 +3841,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B81" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="E81" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -3858,13 +3858,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="E82" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F82" t="s">
         <v>24</v>
@@ -3875,13 +3875,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B83" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="E83" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F83" t="s">
         <v>15</v>
@@ -3892,13 +3892,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B84" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="E84" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
@@ -3909,13 +3909,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="E85" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F85" t="s">
         <v>21</v>
@@ -3926,13 +3926,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="E86" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F86" t="s">
         <v>24</v>
@@ -3943,13 +3943,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="E87" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F87" t="s">
         <v>11</v>
@@ -3960,13 +3960,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B88" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="E88" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F88" t="s">
         <v>21</v>
@@ -3977,13 +3977,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="E89" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F89" t="s">
         <v>24</v>
@@ -3994,13 +3994,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F90" t="s">
         <v>24</v>
@@ -4011,13 +4011,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F91" t="s">
         <v>24</v>
@@ -4028,13 +4028,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B92" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="E92" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
@@ -4045,13 +4045,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B93" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F93" t="s">
         <v>21</v>
@@ -4062,13 +4062,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F94" t="s">
         <v>11</v>
@@ -4079,13 +4079,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B95" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F95" t="s">
         <v>15</v>
@@ -4096,13 +4096,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B96" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="E96" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F96" t="s">
         <v>11</v>
@@ -4113,13 +4113,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B97" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="E97" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F97" t="s">
         <v>15</v>
@@ -4130,13 +4130,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -4147,13 +4147,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B99" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="F99" t="s">
         <v>11</v>
@@ -4164,13 +4164,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="F100" t="s">
         <v>15</v>
@@ -4181,13 +4181,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B101" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="E101" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="F101" t="s">
         <v>24</v>
@@ -4198,13 +4198,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B102" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="E102" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
@@ -4215,13 +4215,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="E103" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F103" t="s">
         <v>11</v>
@@ -4232,13 +4232,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="E104" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F104" t="s">
         <v>15</v>
@@ -4249,13 +4249,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E105" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F105" t="s">
         <v>24</v>
@@ -4266,19 +4266,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="F106" t="s">
         <v>15</v>
@@ -4289,19 +4289,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E107" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="F107" t="s">
         <v>11</v>
@@ -4312,19 +4312,19 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E108" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="F108" t="s">
         <v>21</v>
@@ -4335,19 +4335,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E109" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="F109" t="s">
         <v>24</v>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B110" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="E110" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F110" t="s">
         <v>15</v>
@@ -4375,13 +4375,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="E111" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F111" t="s">
         <v>11</v>
@@ -4392,13 +4392,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B112" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="E112" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F112" t="s">
         <v>21</v>
@@ -4409,13 +4409,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B113" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="E113" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F113" t="s">
         <v>24</v>
@@ -4426,13 +4426,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B114" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="E114" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F114" t="s">
         <v>24</v>
@@ -4443,13 +4443,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B115" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="E115" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F115" t="s">
         <v>21</v>
@@ -4460,13 +4460,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B116" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="E116" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F116" t="s">
         <v>15</v>
@@ -4477,13 +4477,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B117" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="E117" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F117" t="s">
         <v>11</v>
@@ -4494,13 +4494,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B118" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="E118" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="F118" t="s">
         <v>24</v>
@@ -4511,13 +4511,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B119" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="E119" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="F119" t="s">
         <v>21</v>
@@ -4528,13 +4528,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="E120" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="F120" t="s">
         <v>15</v>
@@ -4545,13 +4545,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="E121" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="F121" t="s">
         <v>11</v>
@@ -4562,19 +4562,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="C122" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="D122" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E122" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="F122" t="s">
         <v>11</v>
@@ -4585,19 +4585,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B123" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="C123" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="D123" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="E123" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="F123" t="s">
         <v>15</v>
@@ -4608,19 +4608,19 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="D124" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E124" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="F124" t="s">
         <v>21</v>
@@ -4631,19 +4631,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B125" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C125" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D125" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E125" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="F125" t="s">
         <v>24</v>
@@ -4654,19 +4654,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B126" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C126" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="D126" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="E126" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F126" t="s">
         <v>11</v>
@@ -4677,19 +4677,19 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="C127" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="D127" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E127" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F127" t="s">
         <v>15</v>
@@ -4700,19 +4700,19 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B128" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="C128" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="D128" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E128" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
@@ -4723,19 +4723,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="C129" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D129" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="E129" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F129" t="s">
         <v>24</v>
@@ -4746,19 +4746,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="C130" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E130" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="F130" t="s">
         <v>24</v>
@@ -4769,19 +4769,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="E131" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F131" t="s">
         <v>24</v>
@@ -4792,19 +4792,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="C132" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="E132" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="F132" t="s">
         <v>21</v>
@@ -4815,19 +4815,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="E133" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F133" t="s">
         <v>21</v>
@@ -4838,19 +4838,19 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B134" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="E134" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="F134" t="s">
         <v>11</v>
@@ -4861,19 +4861,19 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B135" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="E135" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -4884,19 +4884,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B136" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C136" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="E136" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F136" t="s">
         <v>11</v>
@@ -4907,19 +4907,19 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B137" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C137" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="E137" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F137" t="s">
         <v>15</v>
@@ -4930,19 +4930,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="B138" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="C138" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="D138" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="E138" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
@@ -4953,19 +4953,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="C139" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="D139" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E139" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="F139" t="s">
         <v>11</v>
@@ -4976,19 +4976,19 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="B140" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C140" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="D140" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="E140" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="F140" t="s">
         <v>15</v>
@@ -4999,19 +4999,19 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="B141" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="C141" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="D141" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="E141" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="F141" t="s">
         <v>24</v>
@@ -5022,13 +5022,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="B142" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="E142" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="F142" t="s">
         <v>21</v>
@@ -5039,13 +5039,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="B143" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="E143" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="F143" t="s">
         <v>15</v>
@@ -5056,13 +5056,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="B144" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="E144" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="F144" t="s">
         <v>11</v>
@@ -5073,13 +5073,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="B145" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="E145" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="F145" t="s">
         <v>24</v>
@@ -5090,19 +5090,19 @@
     </row>
     <row r="146" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="C146" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="D146" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="F146" t="s">
         <v>24</v>
@@ -5113,19 +5113,19 @@
     </row>
     <row r="147" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="E147" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="F147" t="s">
         <v>24</v>
@@ -5136,19 +5136,19 @@
     </row>
     <row r="148" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="E148" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="F148" t="s">
         <v>15</v>
@@ -5159,22 +5159,22 @@
     </row>
     <row r="149" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B149" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="E149" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="F149" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="G149" t="s">
         <v>12</v>
@@ -5182,19 +5182,19 @@
     </row>
     <row r="150" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B150" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="E150" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="F150" t="s">
         <v>21</v>
@@ -5205,19 +5205,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B151" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="C151" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D151" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="F151" t="s">
         <v>24</v>
@@ -5228,19 +5228,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B152" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="E152" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="F152" t="s">
         <v>24</v>
@@ -5251,19 +5251,19 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B153" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="E153" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="F153" t="s">
         <v>15</v>
@@ -5274,19 +5274,19 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B154" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="E154" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="F154" t="s">
         <v>11</v>
@@ -5297,19 +5297,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B155" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="E155" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="F155" t="s">
         <v>21</v>
@@ -5320,19 +5320,19 @@
     </row>
     <row r="156" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>220</v>
+      </c>
+      <c r="B156" t="s">
+        <v>394</v>
+      </c>
+      <c r="C156" t="s">
+        <v>250</v>
+      </c>
+      <c r="D156" t="s">
+        <v>251</v>
+      </c>
+      <c r="E156" t="s">
         <v>252</v>
-      </c>
-      <c r="B156" t="s">
-        <v>426</v>
-      </c>
-      <c r="C156" t="s">
-        <v>282</v>
-      </c>
-      <c r="D156" t="s">
-        <v>283</v>
-      </c>
-      <c r="E156" t="s">
-        <v>284</v>
       </c>
       <c r="F156" t="s">
         <v>24</v>
@@ -5343,19 +5343,19 @@
     </row>
     <row r="157" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B157" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E157" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F157" t="s">
         <v>24</v>
@@ -5366,19 +5366,19 @@
     </row>
     <row r="158" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B158" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="E158" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F158" t="s">
         <v>15</v>
@@ -5389,19 +5389,19 @@
     </row>
     <row r="159" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="E159" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F159" t="s">
         <v>11</v>
@@ -5412,19 +5412,19 @@
     </row>
     <row r="160" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B160" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="E160" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F160" t="s">
         <v>21</v>
@@ -5435,19 +5435,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B161" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="C161" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="D161" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="E161" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="F161" t="s">
         <v>24</v>
@@ -5458,19 +5458,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B162" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="E162" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="F162" t="s">
         <v>24</v>
@@ -5481,19 +5481,19 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B163" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="E163" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="F163" t="s">
         <v>15</v>
@@ -5504,19 +5504,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B164" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="E164" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="F164" t="s">
         <v>11</v>
@@ -5527,19 +5527,19 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B165" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="E165" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="F165" t="s">
         <v>21</v>
@@ -5550,19 +5550,19 @@
     </row>
     <row r="166" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B166" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="C166" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="D166" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="E166" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="F166" t="s">
         <v>24</v>
@@ -5573,19 +5573,19 @@
     </row>
     <row r="167" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B167" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="E167" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="F167" t="s">
         <v>24</v>
@@ -5596,19 +5596,19 @@
     </row>
     <row r="168" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B168" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="E168" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="F168" t="s">
         <v>15</v>
@@ -5619,19 +5619,19 @@
     </row>
     <row r="169" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B169" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E169" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="F169" t="s">
         <v>11</v>
@@ -5642,19 +5642,19 @@
     </row>
     <row r="170" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B170" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E170" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="F170" t="s">
         <v>21</v>
@@ -5665,19 +5665,19 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B171" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="C171" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D171" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="E171" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="F171" t="s">
         <v>24</v>
@@ -5688,19 +5688,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B172" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="C172" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D172" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="E172" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="F172" t="s">
         <v>15</v>
@@ -5711,19 +5711,19 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="C173" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D173" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="E173" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="F173" t="s">
         <v>11</v>
@@ -5734,19 +5734,19 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="C174" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D174" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="E174" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="F174" t="s">
         <v>21</v>
@@ -5757,19 +5757,19 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B175" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="C175" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="D175" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="E175" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="F175" t="s">
         <v>24</v>
@@ -5780,19 +5780,19 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B176" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="C176" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="D176" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="E176" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="F176" t="s">
         <v>15</v>
@@ -5803,19 +5803,19 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B177" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="C177" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="D177" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="E177" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="F177" t="s">
         <v>11</v>
@@ -5826,19 +5826,19 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B178" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="C178" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="D178" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="E178" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="F178" t="s">
         <v>21</v>
@@ -5849,19 +5849,19 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B179" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C179" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D179" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="E179" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="F179" t="s">
         <v>24</v>
@@ -5872,19 +5872,19 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B180" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="C180" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="D180" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="E180" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="F180" t="s">
         <v>15</v>
@@ -5895,19 +5895,19 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B181" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C181" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="D181" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="E181" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="F181" t="s">
         <v>11</v>
@@ -5918,19 +5918,19 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B182" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="C182" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="D182" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="E182" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="F182" t="s">
         <v>21</v>
@@ -5941,22 +5941,22 @@
     </row>
     <row r="183" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="G183" s="9" t="s">
         <v>37</v>
@@ -5964,22 +5964,22 @@
     </row>
     <row r="184" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B184" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C184" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D184" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="E184" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F184" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G184" t="s">
         <v>37</v>
@@ -5987,22 +5987,22 @@
     </row>
     <row r="185" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B185" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="C185" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="D185" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E185" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F185" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="G185" t="s">
         <v>37</v>
@@ -6010,19 +6010,19 @@
     </row>
     <row r="186" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B186" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="C186" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="D186" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="E186" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F186" t="s">
         <v>15</v>
@@ -6033,19 +6033,19 @@
     </row>
     <row r="187" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F187" s="9" t="s">
         <v>24</v>
@@ -6056,19 +6056,19 @@
     </row>
     <row r="188" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B188" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="C188" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D188" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E188" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F188" t="s">
         <v>18</v>
@@ -6079,19 +6079,19 @@
     </row>
     <row r="189" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B189" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="C189" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D189" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E189" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F189" t="s">
         <v>11</v>
@@ -6102,19 +6102,19 @@
     </row>
     <row r="190" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B190" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="C190" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D190" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="E190" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F190" t="s">
         <v>15</v>
@@ -6125,19 +6125,19 @@
     </row>
     <row r="191" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B191" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="C191" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D191" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E191" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F191" t="s">
         <v>21</v>
@@ -6148,19 +6148,19 @@
     </row>
     <row r="192" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B192" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="C192" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="D192" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="E192" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="F192" t="s">
         <v>24</v>
@@ -6171,19 +6171,19 @@
     </row>
     <row r="193" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="C193" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="D193" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="E193" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="F193" t="s">
         <v>15</v>
@@ -6194,19 +6194,19 @@
     </row>
     <row r="194" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B194" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="C194" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="D194" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="E194" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="F194" t="s">
         <v>11</v>
@@ -6217,19 +6217,19 @@
     </row>
     <row r="195" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B195" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="C195" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="D195" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="E195" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
@@ -6240,19 +6240,19 @@
     </row>
     <row r="196" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B196" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="C196" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="D196" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="E196" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="F196" t="s">
         <v>24</v>
@@ -6263,19 +6263,19 @@
     </row>
     <row r="197" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B197" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="C197" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="D197" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="E197" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="F197" t="s">
         <v>15</v>
@@ -6286,19 +6286,19 @@
     </row>
     <row r="198" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B198" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="C198" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="D198" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="E198" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="F198" t="s">
         <v>11</v>
@@ -6309,19 +6309,19 @@
     </row>
     <row r="199" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="C199" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="D199" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="E199" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="F199" t="s">
         <v>21</v>
@@ -6332,19 +6332,19 @@
     </row>
     <row r="200" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="C200" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="D200" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="E200" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="F200" t="s">
         <v>24</v>
@@ -6355,19 +6355,19 @@
     </row>
     <row r="201" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B201" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="C201" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="D201" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="E201" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="F201" t="s">
         <v>15</v>
@@ -6378,19 +6378,19 @@
     </row>
     <row r="202" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B202" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="C202" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="D202" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="E202" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="F202" t="s">
         <v>11</v>
@@ -6401,19 +6401,19 @@
     </row>
     <row r="203" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B203" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="C203" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D203" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="E203" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="F203" t="s">
         <v>21</v>
@@ -6424,19 +6424,19 @@
     </row>
     <row r="204" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B204" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="C204" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="D204" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="E204" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="F204" t="s">
         <v>24</v>
@@ -6447,19 +6447,19 @@
     </row>
     <row r="205" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>290</v>
+      </c>
+      <c r="B205" t="s">
+        <v>367</v>
+      </c>
+      <c r="C205" t="s">
+        <v>321</v>
+      </c>
+      <c r="D205" t="s">
         <v>322</v>
       </c>
-      <c r="B205" t="s">
-        <v>399</v>
-      </c>
-      <c r="C205" t="s">
-        <v>353</v>
-      </c>
-      <c r="D205" t="s">
-        <v>354</v>
-      </c>
       <c r="E205" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="F205" t="s">
         <v>15</v>
@@ -6470,19 +6470,19 @@
     </row>
     <row r="206" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B206" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="C206" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="D206" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="E206" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="F206" t="s">
         <v>11</v>
@@ -6493,19 +6493,19 @@
     </row>
     <row r="207" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B207" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="C207" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="D207" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="E207" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="F207" t="s">
         <v>21</v>
@@ -6516,19 +6516,19 @@
     </row>
     <row r="208" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B208" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="C208" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="D208" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="E208" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="F208" t="s">
         <v>24</v>
@@ -6539,19 +6539,19 @@
     </row>
     <row r="209" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B209" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="C209" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="D209" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="E209" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="F209" t="s">
         <v>15</v>
@@ -6562,22 +6562,22 @@
     </row>
     <row r="210" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B210" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="C210" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="D210" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E210" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="F210" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="G210" t="s">
         <v>12</v>
@@ -6585,19 +6585,19 @@
     </row>
     <row r="211" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B211" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C211" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="D211" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="E211" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="F211" t="s">
         <v>11</v>
@@ -6608,22 +6608,22 @@
     </row>
     <row r="212" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B212" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="C212" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="D212" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E212" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="F212" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="G212" t="s">
         <v>12</v>
@@ -6631,19 +6631,19 @@
     </row>
     <row r="213" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="B213" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="C213" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="D213" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="E213" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="F213" t="s">
         <v>21</v>

--- a/ChimerismFileMetaData.xlsx
+++ b/ChimerismFileMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reiko\Documents\chimerism_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B1F80-2722-4E8D-9E8D-3AF1EF7D0119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDF3D10-A034-45F4-ABDA-03A28F9827A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2039,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="141" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="141" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,23 +2657,23 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:C45" si="0">LEFT(B27,15)</f>
-        <v>1799FL-21-01-87</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>72</v>
+        <f>LEFT(B27,15)</f>
+        <v>1799FL-23-01-90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2681,20 +2681,20 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-21-01-91</v>
+        <f>LEFT(B28,15)</f>
+        <v>1799FL-21-01-96</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
         <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -2705,20 +2705,20 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-21-01-92</v>
+        <f>LEFT(B29,15)</f>
+        <v>1799FL-21-01-87</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2729,20 +2729,20 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-21-01-96</v>
+        <f>LEFT(B30,15)</f>
+        <v>1799FL-21-01-92</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
         <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -2753,17 +2753,17 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-03</v>
-      </c>
-      <c r="D31" t="s">
-        <v>76</v>
+        <f>LEFT(B31,15)</f>
+        <v>1799FL-21-01-91</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
         <v>21</v>
@@ -2777,20 +2777,20 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-07</v>
+        <f>LEFT(B32,15)</f>
+        <v>1799FL-23-01-31</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -2801,20 +2801,20 @@
         <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-10</v>
+        <f>LEFT(B33,15)</f>
+        <v>1799FL-23-01-15</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
         <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -2825,20 +2825,20 @@
         <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-12</v>
+        <f>LEFT(B34,15)</f>
+        <v>1799FL-23-01-28</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -2849,20 +2849,20 @@
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-15</v>
+        <f>LEFT(B35,15)</f>
+        <v>1799FL-23-01-21</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
         <v>77</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -2873,17 +2873,17 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-18</v>
+        <f>LEFT(B36,15)</f>
+        <v>1799FL-23-01-10</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -2897,20 +2897,20 @@
         <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-19</v>
+        <f>LEFT(B37,15)</f>
+        <v>1799FL-23-01-03</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -2921,20 +2921,20 @@
         <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-21</v>
+        <f>LEFT(B38,15)</f>
+        <v>1799FL-23-01-27</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -2945,20 +2945,20 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-25</v>
+        <f>LEFT(B39,15)</f>
+        <v>1799FL-23-01-07</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -2969,20 +2969,20 @@
         <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-27</v>
+        <f>LEFT(B40,15)</f>
+        <v>1799FL-23-01-18</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
         <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -2993,20 +2993,20 @@
         <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-28</v>
+        <f>LEFT(B41,15)</f>
+        <v>1799FL-23-01-12</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -3017,20 +3017,20 @@
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-30</v>
-      </c>
-      <c r="D42" t="s">
-        <v>91</v>
+        <f>LEFT(B42,15)</f>
+        <v>LowInput_1799FL</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="E42" t="s">
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -3041,20 +3041,20 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-31</v>
+        <f>LEFT(B43,15)</f>
+        <v>1799FL-23-01-19</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -3065,23 +3065,23 @@
         <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>1799FL-23-01-90</v>
+        <f>LEFT(B44,15)</f>
+        <v>1799FL-23-01-25</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3089,20 +3089,20 @@
         <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>LowInput_1799FL</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>96</v>
+        <f>LEFT(B45,15)</f>
+        <v>1799FL-23-01-30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
       </c>
       <c r="E45" t="s">
         <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -3116,7 +3116,7 @@
         <v>468</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" ref="C46:C53" si="1">LEFT(B46, 6)</f>
+        <f t="shared" ref="C46:C53" si="0">LEFT(B46, 6)</f>
         <v>36_S10</v>
       </c>
       <c r="E46" t="s">
@@ -3137,7 +3137,7 @@
         <v>469</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38_S18</v>
       </c>
       <c r="E47" t="s">
@@ -3158,7 +3158,7 @@
         <v>470</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39_S19</v>
       </c>
       <c r="E48" t="s">
@@ -3179,7 +3179,7 @@
         <v>471</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41_S11</v>
       </c>
       <c r="E49" t="s">
@@ -3200,7 +3200,7 @@
         <v>472</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42_S12</v>
       </c>
       <c r="E50" t="s">
@@ -3221,7 +3221,7 @@
         <v>473</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43_S20</v>
       </c>
       <c r="E51" t="s">
@@ -3242,7 +3242,7 @@
         <v>474</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44_S21</v>
       </c>
       <c r="E52" t="s">
@@ -3263,7 +3263,7 @@
         <v>475</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45_S22</v>
       </c>
       <c r="E53" t="s">
@@ -3384,11 +3384,11 @@
         <v>464</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" ref="C58:D60" si="2">LEFT(B58, 12)</f>
+        <f t="shared" ref="C58:D60" si="1">LEFT(B58, 12)</f>
         <v>H1487-15_S15</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>H1487-15_S15</v>
       </c>
       <c r="E58" t="s">
@@ -3409,11 +3409,11 @@
         <v>465</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>H1487-16_S16</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>H1487-16_S16</v>
       </c>
       <c r="E59" t="s">
@@ -3434,11 +3434,11 @@
         <v>466</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>H1487-18_S18</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>H1487-18_S18</v>
       </c>
       <c r="E60" t="s">
@@ -6653,10 +6653,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A146:G170">
-    <sortCondition ref="A146:A170"/>
-    <sortCondition descending="1" ref="G146:G170"/>
-    <sortCondition ref="F146:F170"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:G45">
+    <sortCondition descending="1" ref="G27:G45"/>
+    <sortCondition ref="E27:E45"/>
+    <sortCondition ref="F27:F45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
